--- a/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem1/correct_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem1/correct_predictions.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Current elevation above nnn Fly with caution .</t>
+          <t>Critically low power Aircraft is landing .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Critically low power</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -501,22 +501,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Current elevation above nnn Fly with caution .</t>
+          <t>Critically low power Aircraft is landing .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current elevation above nnn</t>
+          <t>Aircraft is landing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -531,17 +531,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>SD card speed low Change card .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,17 +621,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>SD card speed low Change card .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -651,17 +651,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Low Power Returning home .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -681,17 +681,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Low Power Returning home .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Returning home</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-17</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -711,22 +711,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>SD card full Change card or delete files .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Landing Protection Activated Aircraft will decelerate during landing .</t>
+          <t>SD card full Change card or delete files .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft will decelerate during landing</t>
+          <t>SD card full</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Landing Protection Activated Aircraft will decelerate during landing .</t>
+          <t>Precision Landing Rectifying aircraft position .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Landing Protection Activated</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error Auto calibration in progress .</t>
+          <t>Precision Landing Rectifying aircraft position .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -831,27 +831,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error Auto calibration in progress .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Auto calibration in progress</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Mobile device CPU fully loaded Related performance will be affected .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Related performance will be affected</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Mobile device CPU fully loaded Related performance will be affected .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Mobile device CPU fully loaded</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -921,17 +921,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SD card speed low Change card .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SD card speed low Change card .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Compass Error Compass direction is not the same with IMU .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Compass Error Compass direction is not the same with IMU .</t>
+          <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>3-17</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1041,17 +1041,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Battery error Aircraft returning to home automatically .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Battery error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Battery error Aircraft returning to home automatically .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>2-6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded Related performance will be affected .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Related performance will be affected</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1131,17 +1131,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded Related performance will be affected .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1161,27 +1161,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Low Power Returning home .</t>
+          <t>Current elevation above nnn Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1191,22 +1191,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Low Power Returning home .</t>
+          <t>Current elevation above nnn Fly with caution .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Returning home</t>
+          <t>Current elevation above nnn</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted Forward Obstacle Sensing will be automatically switched off .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,21 +1247,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated Automatically returning to home .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated Automatically returning to home .</t>
+          <t>Forward vision sensor calibration error Auto calibration in progress .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Automatically returning to home</t>
+          <t>Forward vision sensor calibration error</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1307,21 +1307,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Compass Error Compass Redundancy Switch .</t>
+          <t>Forward vision sensor calibration error Auto calibration in progress .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Auto calibration in progress</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1341,17 +1341,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Compass Error Compass Redundancy Switch .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1367,21 +1367,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SD card full Change card or delete files .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1401,17 +1401,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SD card full Change card or delete files .</t>
+          <t>Attitude is too large Backward Obstacle Sensing is not functioning .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SD card full</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Precision Landing Rectifying aircraft position .</t>
+          <t>Attitude is too large Backward Obstacle Sensing is not functioning .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Attitude is too large</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1461,17 +1461,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Precision Landing Rectifying aircraft position .</t>
+          <t>Compass Error Compass Redundancy Switch .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1487,21 +1487,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Attitude is too large Backward Obstacle Sensing is not functioning .</t>
+          <t>Compass Error Compass Redundancy Switch .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1521,17 +1521,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Attitude is too large Backward Obstacle Sensing is not functioning .</t>
+          <t>Aircraft too Far Cannot enter Follow Me Mode .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Attitude is too large</t>
+          <t>Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1547,7 +1547,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cannot enter Follow Me Mode</t>
+          <t>Aircraft too Far</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1581,17 +1581,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aircraft too Far Cannot enter Follow Me Mode .</t>
+          <t>Compass Error Compass direction is not the same with IMU .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft too Far</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1607,21 +1607,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Critically low power Aircraft is landing .</t>
+          <t>Compass Error Compass direction is not the same with IMU .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Critically low power</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1641,17 +1641,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Critically low power Aircraft is landing .</t>
+          <t>Aircraft processor overheated Automatically returning to home .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Aircraft is landing</t>
+          <t>Aircraft processor overheated</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Battery error Aircraft returning to home automatically .</t>
+          <t>Aircraft processor overheated Automatically returning to home .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Battery error</t>
+          <t>Automatically returning to home</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Battery error Aircraft returning to home automatically .</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted Forward Obstacle Sensing will be automatically switched off .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Aircraft returning to home automatically</t>
+          <t>Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2-6</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1731,17 +1731,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Landing Protection Activated Aircraft will decelerate during landing .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Aircraft will decelerate during landing</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Landing Protection Activated Aircraft will decelerate during landing .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Landing Protection Activated</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
